--- a/files/SM2/K2/K2-Body.xlsx
+++ b/files/SM2/K2/K2-Body.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM2\K2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2000D180-9260-41FC-831F-E4BAD7C26D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EDCD9B-7CFC-4AAF-AA39-25F8D2BE4EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
   <si>
     <t>Kasvot</t>
   </si>
@@ -318,6 +318,14 @@
   </si>
   <si>
     <t>hair(poetic)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomach(medical)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stomach(casual)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -918,7 +926,7 @@
         <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -926,7 +934,7 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
